--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-OV-openbareverlichting.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-OV-openbareverlichting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{87E8FF01-AC28-43BD-9D99-C159B028D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD2D5B8B-D062-4E6C-9C6D-B4EFB4C42100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{66CDB56E-89D1-4B71-99FD-60BF9D2453A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8755075-5F58-403A-843A-4983D1E64691}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-OV-openbar" sheetId="1" r:id="rId1"/>
@@ -292,36 +292,36 @@
     <t>V-CONTINUOUS-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6395114b-6246-4efe-8b6f-cfb1acce87fb</t>
+  </si>
+  <si>
+    <t>V-SOV-KAST_ONTSTEEKPUNT-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/46adf6fb-9b9e-4931-9946-0fc26c76edf6</t>
   </si>
   <si>
     <t>SOV-KAST_ONTSTEEKPUNT-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6395114b-6246-4efe-8b6f-cfb1acce87fb</t>
-  </si>
-  <si>
-    <t>V-SOV-KAST_ONTSTEEKPUNT-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/5485b1d7-20e7-440b-bd65-dbf023c96d0b</t>
   </si>
   <si>
     <t>KAST_HOOGSPANNING</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/49ac5144-9fab-44ba-9e74-85e356d5e5e7</t>
+  </si>
+  <si>
+    <t>V-SOV-KAST_HOOGSPANNING-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/6f07cc4d-d1cf-43ef-b776-1a9d48320d84</t>
   </si>
   <si>
     <t>SOV-KAST_HOOGSPANNING-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/49ac5144-9fab-44ba-9e74-85e356d5e5e7</t>
-  </si>
-  <si>
-    <t>V-SOV-KAST_HOOGSPANNING-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/10c7d6c2-2f80-4dd4-9c6e-d8988bedcf67</t>
   </si>
   <si>
@@ -346,54 +346,54 @@
     <t>KAST_TRANSFORMATORKAST</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/abd967fb-6588-4c8f-afb2-bb81ae7c9c4b</t>
+  </si>
+  <si>
+    <t>V-SOV-KAST_TRANSFORMATORKAST-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/6b616694-f3c6-4417-b65f-9da36d00189e</t>
   </si>
   <si>
     <t>SOV-KAST_TRANSFORMATORKAST-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/abd967fb-6588-4c8f-afb2-bb81ae7c9c4b</t>
-  </si>
-  <si>
-    <t>V-SOV-KAST_TRANSFORMATORKAST-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/0572ae6b-8a98-4300-9c6f-40d705d689c9</t>
   </si>
   <si>
     <t>KAST_SEKTIEKAST</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/56dbde20-a787-4ea8-83c3-6e8527907951</t>
+  </si>
+  <si>
+    <t>SOV-KAST_SEKTIEKAST-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/bebad6d5-86f5-4b29-9680-14f0a9e88e24</t>
   </si>
   <si>
     <t>V-SOV-KAST_SEKTIEKAST-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/56dbde20-a787-4ea8-83c3-6e8527907951</t>
-  </si>
-  <si>
-    <t>SOV-KAST_SEKTIEKAST-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/57c5e9ac-aa27-4701-a8bf-ea664c8e0fac</t>
   </si>
   <si>
     <t>KAST_DOORVERBINDINGSKAST</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1acfdcc0-7ec3-4095-883c-3353c740e951</t>
+  </si>
+  <si>
+    <t>SOV-KAST_DOORVERBINDINGSKAST-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/dc160b60-9cd7-46e2-94da-a665cfe373f3</t>
   </si>
   <si>
     <t>V-SOV-KAST_DOORVERBINDINGSKAST-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1acfdcc0-7ec3-4095-883c-3353c740e951</t>
-  </si>
-  <si>
-    <t>SOV-KAST_DOORVERBINDINGSKAST-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/49063385-8fa3-4ab4-a390-1c9f3a77336a</t>
   </si>
   <si>
@@ -463,18 +463,18 @@
     <t>V-SOV-ARMATUUR_SPOT_01-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1777f899-c249-47ba-bdaa-7fbb730715ee</t>
+  </si>
+  <si>
+    <t>SOV-ARMATUUR_SPOT_02-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/aed763ec-08e4-446a-a6de-ca9cfedc6ff2</t>
   </si>
   <si>
     <t>V-SOV-ARMATUUR_SPOT_02-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1777f899-c249-47ba-bdaa-7fbb730715ee</t>
-  </si>
-  <si>
-    <t>SOV-ARMATUUR_SPOT_02-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/96a8283e-7831-435b-beb1-c434f87f3300</t>
   </si>
   <si>
@@ -514,16 +514,16 @@
     <t>V-SOV-HULP_LAS_SIGNAALGEVERKABEL-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/632ee0ab-3975-4ab9-ad72-cca4285262ed</t>
+  </si>
+  <si>
+    <t>SOV-HULP_LAS_SIGNAALGEVERKABEL-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/0c53b54e-74fd-4cce-873f-74266dd4aed8</t>
   </si>
   <si>
     <t>SOV-HULP_LAS_COMMUNICATIEKABEL-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/632ee0ab-3975-4ab9-ad72-cca4285262ed</t>
-  </si>
-  <si>
-    <t>SOV-HULP_LAS_SIGNAALGEVERKABEL-SO</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/4a13b314-b113-4389-87f6-da315ee0ce58</t>
@@ -1776,18 +1776,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50627C4-DFFF-4B3F-9A5A-EBCDCFB25B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D053D6-9E05-4DAB-8555-2470B189867E}">
   <dimension ref="A1:BS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AU27" sqref="AU27"/>
+    <sheetView tabSelected="1" topLeftCell="AG58" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="67" width="8.7265625" customWidth="1"/>
-    <col min="68" max="68" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -14149,7 +14147,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS62" xr:uid="{D50627C4-DFFF-4B3F-9A5A-EBCDCFB25B0B}">
+  <autoFilter ref="A1:BS62" xr:uid="{27D053D6-9E05-4DAB-8555-2470B189867E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS62">
       <sortCondition ref="E1:E62"/>
     </sortState>
